--- a/biology/Médecine/Miliaire_cristalline/Miliaire_cristalline.xlsx
+++ b/biology/Médecine/Miliaire_cristalline/Miliaire_cristalline.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les miliaires cristallines, ou sudamina sont de petites vésicules sans inflammation. Elles apparaissent sur le corps, notamment en période de forte chaleur, provoquant des démangeaisons de la peau. Elles sont aussi appelées communément « bouton de chaleur ». Ces « boutons » apparaissent à cause d'une transpiration excessive mais ne pouvant être évacuée correctement. La sueur ne s'évacuant pas, elle reste coincée dans l'épiderme où se forment ces petites vésicules[1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les miliaires cristallines, ou sudamina sont de petites vésicules sans inflammation. Elles apparaissent sur le corps, notamment en période de forte chaleur, provoquant des démangeaisons de la peau. Elles sont aussi appelées communément « bouton de chaleur ». Ces « boutons » apparaissent à cause d'une transpiration excessive mais ne pouvant être évacuée correctement. La sueur ne s'évacuant pas, elle reste coincée dans l'épiderme où se forment ces petites vésicules,.
 </t>
         </is>
       </c>
